--- a/report/models_comparison.xlsx
+++ b/report/models_comparison.xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>0.59</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C8">
         <v>0.58</v>
@@ -546,7 +546,7 @@
         <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/report/models_comparison.xlsx
+++ b/report/models_comparison.xlsx
@@ -31,22 +31,22 @@
     <t>svc</t>
   </si>
   <si>
+    <t>Random_forest_classifier</t>
+  </si>
+  <si>
+    <t>MLP Classifier</t>
+  </si>
+  <si>
     <t>logistic_regression</t>
   </si>
   <si>
+    <t>linear_svc</t>
+  </si>
+  <si>
     <t>Gradient_boosted_classifier</t>
   </si>
   <si>
-    <t>MLP Classifier</t>
-  </si>
-  <si>
     <t>knn</t>
-  </si>
-  <si>
-    <t>linear_svc</t>
-  </si>
-  <si>
-    <t>Random_forest_classifier</t>
   </si>
   <si>
     <t>naive bayes</t>
@@ -441,10 +441,10 @@
         <v>0.6</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -452,16 +452,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="C3">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
         <v>0.01</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,16 +469,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="C4">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="C5">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,16 +503,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="C6">
         <v>0.58</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -520,16 +520,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
         <v>0.58</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,16 +537,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="C8">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,7 +563,7 @@
         <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -571,16 +571,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="C10">
         <v>0.51</v>
       </c>
       <c r="D10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/report/models_comparison.xlsx
+++ b/report/models_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>avg_train_score</t>
   </si>
@@ -28,31 +28,37 @@
     <t>std_test_score</t>
   </si>
   <si>
+    <t>avg_prec_score</t>
+  </si>
+  <si>
+    <t>avg_recall_score</t>
+  </si>
+  <si>
+    <t>Gradient_boosted_classifier</t>
+  </si>
+  <si>
+    <t>MLP Classifier</t>
+  </si>
+  <si>
     <t>svc</t>
   </si>
   <si>
     <t>Random_forest_classifier</t>
   </si>
   <si>
-    <t>MLP Classifier</t>
+    <t>knn</t>
   </si>
   <si>
     <t>logistic_regression</t>
   </si>
   <si>
+    <t>perceptron</t>
+  </si>
+  <si>
     <t>linear_svc</t>
   </si>
   <si>
-    <t>Gradient_boosted_classifier</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
     <t>naive bayes</t>
-  </si>
-  <si>
-    <t>perceptron</t>
   </si>
 </sst>
 </file>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,158 +435,218 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.66</v>
+        <v>0.95</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>0.5573156155835527</v>
+      </c>
+      <c r="G2">
+        <v>0.5573156155835527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.86</v>
+      </c>
+      <c r="C3">
+        <v>0.52</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <v>0.5186678618881534</v>
+      </c>
+      <c r="G3">
+        <v>0.5186678618881534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.82</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <v>0.4977279076802619</v>
+      </c>
+      <c r="G4">
+        <v>0.4977279076802619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.83</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>0.5007406814245379</v>
+      </c>
+      <c r="G5">
+        <v>0.5007406814245379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.4486465673713432</v>
+      </c>
+      <c r="G6">
+        <v>0.4486465673713432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.59</v>
+      </c>
+      <c r="C7">
+        <v>0.39</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>0.3898926080148053</v>
+      </c>
+      <c r="G7">
+        <v>0.3898926080148053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="C8">
+        <v>0.37</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <v>0.3719954267207631</v>
+      </c>
+      <c r="G8">
+        <v>0.3719954267207631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.58</v>
+      </c>
+      <c r="C9">
+        <v>0.36</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>0.3578484233753292</v>
+      </c>
+      <c r="G9">
+        <v>0.3578484233753292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.46</v>
+      </c>
+      <c r="C10">
+        <v>0.31</v>
+      </c>
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.72</v>
-      </c>
-      <c r="C3">
-        <v>0.6</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.66</v>
-      </c>
-      <c r="C4">
-        <v>0.6</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.59</v>
-      </c>
-      <c r="C5">
-        <v>0.58</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.58</v>
-      </c>
-      <c r="C6">
-        <v>0.58</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.88</v>
-      </c>
-      <c r="C7">
-        <v>0.58</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.65</v>
-      </c>
-      <c r="C8">
-        <v>0.57</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.55</v>
-      </c>
-      <c r="C9">
-        <v>0.53</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.49</v>
-      </c>
-      <c r="C10">
-        <v>0.51</v>
-      </c>
-      <c r="D10">
-        <v>0.03</v>
-      </c>
-      <c r="E10">
-        <v>0.03</v>
+      <c r="F10">
+        <v>0.3050399346335445</v>
+      </c>
+      <c r="G10">
+        <v>0.3050399346335445</v>
       </c>
     </row>
   </sheetData>

--- a/report/models_comparison.xlsx
+++ b/report/models_comparison.xlsx
@@ -37,12 +37,12 @@
     <t>Gradient_boosted_classifier</t>
   </si>
   <si>
+    <t>svc</t>
+  </si>
+  <si>
     <t>MLP Classifier</t>
   </si>
   <si>
-    <t>svc</t>
-  </si>
-  <si>
     <t>Random_forest_classifier</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>perceptron</t>
   </si>
   <si>
+    <t>naive bayes</t>
+  </si>
+  <si>
     <t>linear_svc</t>
-  </si>
-  <si>
-    <t>naive bayes</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
         <v>0.95</v>
       </c>
       <c r="C2">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="D2">
         <v>0.01</v>
@@ -459,10 +459,10 @@
         <v>0.01</v>
       </c>
       <c r="F2">
-        <v>0.5573156155835527</v>
+        <v>0.580927883435321</v>
       </c>
       <c r="G2">
-        <v>0.5573156155835527</v>
+        <v>0.580927883435321</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +470,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C3">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="D3">
         <v>0.01</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0.5186678618881534</v>
+        <v>0.5406491526509868</v>
       </c>
       <c r="G3">
-        <v>0.5186678618881534</v>
+        <v>0.5406491526509868</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +493,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.4977279076802619</v>
+        <v>0.5290247425878398</v>
       </c>
       <c r="G4">
-        <v>0.4977279076802619</v>
+        <v>0.5290247425878398</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,7 +519,7 @@
         <v>0.83</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="D5">
         <v>0.02</v>
@@ -528,10 +528,10 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>0.5007406814245379</v>
+        <v>0.4617000370940548</v>
       </c>
       <c r="G5">
-        <v>0.5007406814245379</v>
+        <v>0.4617000370940548</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D6">
         <v>0.01</v>
@@ -551,10 +551,10 @@
         <v>0.02</v>
       </c>
       <c r="F6">
-        <v>0.4486465673713432</v>
+        <v>0.4408248851079835</v>
       </c>
       <c r="G6">
-        <v>0.4486465673713432</v>
+        <v>0.4408248851079835</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="C7">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
-        <v>0.3898926080148053</v>
+        <v>0.3833788517708521</v>
       </c>
       <c r="G7">
-        <v>0.3898926080148053</v>
+        <v>0.3833788517708521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="C8">
         <v>0.37</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.3719954267207631</v>
+        <v>0.3718399989693308</v>
       </c>
       <c r="G8">
-        <v>0.3719954267207631</v>
+        <v>0.3718399989693308</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +608,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>0.3578484233753292</v>
+        <v>0.3733005794670268</v>
       </c>
       <c r="G9">
-        <v>0.3578484233753292</v>
+        <v>0.3733005794670268</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,22 +631,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
         <v>0.01</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0.3050399346335445</v>
+        <v>0.3485911788430369</v>
       </c>
       <c r="G10">
-        <v>0.3050399346335445</v>
+        <v>0.3485911788430369</v>
       </c>
     </row>
   </sheetData>

--- a/report/models_comparison.xlsx
+++ b/report/models_comparison.xlsx
@@ -52,13 +52,13 @@
     <t>logistic_regression</t>
   </si>
   <si>
+    <t>naive bayes</t>
+  </si>
+  <si>
+    <t>linear_svc</t>
+  </si>
+  <si>
     <t>perceptron</t>
-  </si>
-  <si>
-    <t>naive bayes</t>
-  </si>
-  <si>
-    <t>linear_svc</t>
   </si>
 </sst>
 </file>
@@ -450,19 +450,19 @@
         <v>0.95</v>
       </c>
       <c r="C2">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.01</v>
       </c>
       <c r="F2">
-        <v>0.580927883435321</v>
+        <v>0.5607830844417628</v>
       </c>
       <c r="G2">
-        <v>0.580927883435321</v>
+        <v>0.5607830844417628</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,16 +476,16 @@
         <v>0.54</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0.5406491526509868</v>
+        <v>0.53677130971461</v>
       </c>
       <c r="G3">
-        <v>0.5406491526509868</v>
+        <v>0.53677130971461</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.5290247425878398</v>
+        <v>0.5336433037701915</v>
       </c>
       <c r="G4">
-        <v>0.5290247425878398</v>
+        <v>0.5336433037701915</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C5">
         <v>0.46</v>
@@ -525,13 +525,13 @@
         <v>0.02</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F5">
-        <v>0.4617000370940548</v>
+        <v>0.4586203688691701</v>
       </c>
       <c r="G5">
-        <v>0.4617000370940548</v>
+        <v>0.4586203688691701</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D6">
         <v>0.01</v>
@@ -551,10 +551,10 @@
         <v>0.02</v>
       </c>
       <c r="F6">
-        <v>0.4408248851079835</v>
+        <v>0.4454779218428099</v>
       </c>
       <c r="G6">
-        <v>0.4408248851079835</v>
+        <v>0.4454779218428099</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,19 +565,19 @@
         <v>0.62</v>
       </c>
       <c r="C7">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>0.3833788517708521</v>
+        <v>0.385767260489444</v>
       </c>
       <c r="G7">
-        <v>0.3833788517708521</v>
+        <v>0.385767260489444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
         <v>0.37</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.3718399989693308</v>
+        <v>0.3702680024541976</v>
       </c>
       <c r="G8">
-        <v>0.3718399989693308</v>
+        <v>0.3702680024541976</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +608,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="C9">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <v>0.3733005794670268</v>
+        <v>0.3563253812848866</v>
       </c>
       <c r="G9">
-        <v>0.3733005794670268</v>
+        <v>0.3563253812848866</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,22 +631,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E10">
         <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0.3485911788430369</v>
+        <v>0.3563268787670251</v>
       </c>
       <c r="G10">
-        <v>0.3485911788430369</v>
+        <v>0.3563268787670251</v>
       </c>
     </row>
   </sheetData>
